--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -405,7 +405,7 @@
         <v>(SEO ou accessiblité ?)</v>
       </c>
       <c r="B2" t="str">
-        <v>balise meta description sans contenu</v>
+        <v>balise meta description et title sans contenu</v>
       </c>
       <c r="D2" t="str">
         <v xml:space="preserve">рlасеr dеѕ mоtѕ оu ехрrеѕѕіоnѕ сléѕ </v>
@@ -413,10 +413,10 @@
     </row>
     <row r="3">
       <c r="B3" t="str">
-        <v>balise title sans contenu</v>
+        <v/>
       </c>
       <c r="D3" t="str">
-        <v>doit contenir le mot clé principal</v>
+        <v/>
       </c>
     </row>
     <row r="4">
@@ -424,7 +424,7 @@
         <v>Texte sous forme d'image</v>
       </c>
       <c r="C4" t="str">
-        <v>n'est pas responsive</v>
+        <v>chargement lent , non responsive</v>
       </c>
       <c r="D4" t="str">
         <v>Créer les textes</v>
